--- a/StructureDefinition-ext-R5-Observation.component.xlsx
+++ b/StructureDefinition-ext-R5-Observation.component.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="179">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -411,15 +411,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-observation-codes-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -475,7 +466,7 @@
   </si>
   <si>
     <t>Attachment
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MolecularSequence|0.0.1-snapshot-3|MolecularSequence|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MolecularSequence|MolecularSequence)</t>
   </si>
   <si>
     <t>Extension.extension:dataAbsentReason</t>
@@ -513,15 +504,6 @@
     <t>Extension.extension:dataAbsentReason.value[x]</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-data-absent-reason-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:interpretation</t>
   </si>
   <si>
@@ -556,10 +538,13 @@
     <t>Extension.extension:interpretation.value[x]</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-observation-interpretation-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-observation-interpretation-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:referenceRange</t>
@@ -953,8 +938,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.2734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.2890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.68359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1876,43 +1861,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>122</v>
@@ -1920,13 +1905,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1951,16 +1936,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2029,7 +2014,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2132,7 +2117,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2237,7 +2222,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2280,7 +2265,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2342,7 +2327,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>124</v>
@@ -2368,16 +2353,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2427,7 +2412,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2439,7 +2424,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>122</v>
@@ -2447,13 +2432,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2478,16 +2463,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2556,7 +2541,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2659,7 +2644,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2764,7 +2749,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2807,7 +2792,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2869,7 +2854,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -2898,13 +2883,13 @@
         <v>125</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2930,13 +2915,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2954,7 +2939,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2966,7 +2951,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>122</v>
@@ -2974,13 +2959,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3005,16 +2990,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3083,7 +3068,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3186,7 +3171,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3291,7 +3276,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3334,7 +3319,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3396,7 +3381,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3425,13 +3410,13 @@
         <v>125</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3457,13 +3442,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3481,7 +3466,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3493,7 +3478,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>122</v>
@@ -3501,13 +3486,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3532,16 +3517,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3610,7 +3595,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3713,7 +3698,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3818,7 +3803,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3861,7 +3846,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3923,7 +3908,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -3949,13 +3934,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4006,7 +3991,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4018,7 +4003,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>122</v>
@@ -4131,10 +4116,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4157,13 +4142,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4214,7 +4199,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4226,7 +4211,7 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>122</v>
